--- a/demo_automation/target/classes/datas/Demo_Automation.xlsx
+++ b/demo_automation/target/classes/datas/Demo_Automation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Firstname</t>
   </si>
@@ -62,6 +62,42 @@
   </si>
   <si>
     <t>aldjd</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>2374/shd</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>shfhj</t>
+  </si>
+  <si>
+    <t>bgd</t>
+  </si>
+  <si>
+    <t>zdafhgsdh</t>
+  </si>
+  <si>
+    <t>bgd@gmail.com</t>
+  </si>
+  <si>
+    <t>kjhg</t>
+  </si>
+  <si>
+    <t>mnl</t>
+  </si>
+  <si>
+    <t>sdjfh</t>
+  </si>
+  <si>
+    <t>mnl@gmail.com</t>
+  </si>
+  <si>
+    <t>hgf</t>
   </si>
 </sst>
 </file>
@@ -71,10 +107,10 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,13 +142,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -123,13 +152,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -149,22 +171,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -173,8 +179,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,37 +240,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -226,9 +247,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,187 +272,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,6 +490,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -476,15 +514,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -496,6 +525,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,17 +557,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -537,153 +566,154 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1004,13 +1034,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="3" width="18.8571428571429" customWidth="1"/>
@@ -1089,10 +1119,82 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>8457382473</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>8745389843</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>9845893987</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="shanealfin720@gmail.com"/>
     <hyperlink ref="D3" r:id="rId2" display="alfin.anthonyraj@atmecs.com"/>
+    <hyperlink ref="D4" r:id="rId3" display="abc@gmail.com"/>
+    <hyperlink ref="D5" r:id="rId4" display="bgd@gmail.com"/>
+    <hyperlink ref="D6" r:id="rId5" display="mnl@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
